--- a/Design/requirements/Requirements_User.xlsx
+++ b/Design/requirements/Requirements_User.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phwag\Documents\GitHub\mqtt_exercise_2021\Design\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A4EDD0-DE94-4256-B2F1-24C9DAEE8418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C542F312-73D8-4ED0-A234-FCEA0EADAE93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{7B335535-882B-40E7-B4EC-0B798F51B489}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B335535-882B-40E7-B4EC-0B798F51B489}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -57,18 +57,12 @@
     <t>Every User must have his own ID</t>
   </si>
   <si>
-    <t>Every User must have his own Username</t>
-  </si>
-  <si>
     <t>Every User must send a request of what type of service is needed</t>
   </si>
   <si>
     <t>Every User must send his coordinates</t>
   </si>
   <si>
-    <t>Every User must be connected to the server</t>
-  </si>
-  <si>
     <t>Every User must set the status of the requested vehicle to 'free' after using it</t>
   </si>
   <si>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t>Non-Functional</t>
+  </si>
+  <si>
+    <t>Every User should be connected to the server</t>
+  </si>
+  <si>
+    <t>Every User must have a Username</t>
   </si>
 </sst>
 </file>
@@ -435,71 +435,20 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -509,17 +458,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,7 +838,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,271 +847,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="15" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="15" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="22"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Design/requirements/Requirements_User.xlsx
+++ b/Design/requirements/Requirements_User.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phwag\Documents\GitHub\mqtt_exercise_2021\Design\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C542F312-73D8-4ED0-A234-FCEA0EADAE93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095D5373-F8F3-4153-99BD-01220A7A91F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B335535-882B-40E7-B4EC-0B798F51B489}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>F01</t>
   </si>
@@ -73,15 +73,6 @@
   </si>
   <si>
     <t>NF02</t>
-  </si>
-  <si>
-    <t>NF03</t>
-  </si>
-  <si>
-    <t>NF04</t>
-  </si>
-  <si>
-    <t>NF05</t>
   </si>
   <si>
     <t>The request must be sent within 5s to the server</t>
@@ -458,6 +449,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -472,54 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,7 +829,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:I5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,239 +838,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>21</v>
+      <c r="A13" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
+      <c r="C13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
+      <c r="C14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -1094,6 +1079,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A1:I2"/>
@@ -1103,15 +1097,6 @@
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C13:I13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
